--- a/采购记录.xlsx
+++ b/采购记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18794\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -688,12 +688,6 @@
       </rPr>
       <t>强力胶水</t>
     </r>
-  </si>
-  <si>
-    <t>购买发票（4059.1）+运费</t>
-  </si>
-  <si>
-    <t>购买发票（3991.4）+运费</t>
   </si>
   <si>
     <t>BT 清洗剂 高丙酮基溶剂 溶液 解胶剂 除502胶残留环保501ml包邮 [交易快照]</t>
@@ -851,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,7 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,10 +879,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,11 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1397,16 +1390,16 @@
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>42836</v>
-      </c>
-      <c r="B12" s="10" t="s">
+        <v>42823</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>348</v>
+        <v>12.9</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -1414,16 +1407,16 @@
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
-        <v>42836</v>
-      </c>
-      <c r="B13" s="10" t="s">
+        <v>42837</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>225</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1431,16 +1424,16 @@
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <v>42823</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>42838</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>12.9</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -1448,16 +1441,16 @@
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
-        <v>42837</v>
-      </c>
-      <c r="B15" t="s">
+        <v>42839</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>64.900000000000006</v>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14">
+        <v>99</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -1465,33 +1458,31 @@
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>42838</v>
-      </c>
-      <c r="B16" t="s">
+        <v>42839</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>61</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>42839</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>42857</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14">
-        <v>99</v>
+      <c r="D17" s="3">
+        <v>15.6</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -1499,31 +1490,33 @@
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
-        <v>42839</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>42857</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>33</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>42857</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>42864</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>15.6</v>
+        <v>19.8</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -1531,16 +1524,16 @@
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
-        <v>42857</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>42863</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="3">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -1557,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>19.8</v>
+        <v>7.8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -1565,16 +1558,16 @@
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>42863</v>
-      </c>
-      <c r="B22" t="s">
+        <v>42865</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>34</v>
+      <c r="C22" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -1582,16 +1575,16 @@
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>42864</v>
-      </c>
-      <c r="B23" t="s">
+        <v>42866</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>7.8</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -1599,16 +1592,16 @@
     </row>
     <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>42865</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>42868</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -1616,16 +1609,16 @@
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>42866</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>42868</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -1633,16 +1626,16 @@
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>42868</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3">
-        <v>26</v>
+        <v>42870</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14">
+        <v>43.93</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -1650,17 +1643,15 @@
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>42868</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3">
-        <v>191</v>
-      </c>
+        <v>42870</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1669,77 +1660,45 @@
       <c r="A28" s="6">
         <v>42870</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>41</v>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="14">
-        <v>43.93</v>
-      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>42870</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>42</v>
+        <v>42873</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>42870</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
-        <v>42873</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="D29" s="3">
         <v>20</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>39</v>
+      <c r="E29" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D26:D28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" tooltip="https://item.taobao.com/item.htm?id=548670414358&amp;_u=5p620i92f5e"/>
-    <hyperlink ref="B20" r:id="rId2" tooltip="https://item.taobao.com/item.htm?id=527131073277&amp;_u=5p620i949c9"/>
+    <hyperlink ref="B17" r:id="rId1" tooltip="https://item.taobao.com/item.htm?id=548670414358&amp;_u=5p620i92f5e"/>
+    <hyperlink ref="B18" r:id="rId2" tooltip="https://item.taobao.com/item.htm?id=527131073277&amp;_u=5p620i949c9"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
